--- a/biology/Zoologie/Carpolestes/Carpolestes.xlsx
+++ b/biology/Zoologie/Carpolestes/Carpolestes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carpolestes est un genre fossile de mammifères de l'ordre des Plesiadapiformes, précurseur de l'ordre des Primates. Il fait partie de la famille des Carpolestidae. Il est apparu vers la fin du Paléocène, il y a environ 58 millions d’années[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carpolestes est un genre fossile de mammifères de l'ordre des Plesiadapiformes, précurseur de l'ordre des Primates. Il fait partie de la famille des Carpolestidae. Il est apparu vers la fin du Paléocène, il y a environ 58 millions d’années.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carpolestes (littéralement voleur de fruits, du grec ancien κᾰρπός (karpós), fruit, graine + λῃστής (lēistḗs), voleur) a été décrit en 1928 à partir de fossiles trouvés dans le Montana, aux États-Unis.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carpolestes a des ongles aplatis sur les doigts de pied mais des griffes sur les doigts de main, ce qui préfigure les Primates dotés d'ongles à la fois sur les doigts de pied et de main[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carpolestes a des ongles aplatis sur les doigts de pied mais des griffes sur les doigts de main, ce qui préfigure les Primates dotés d'ongles à la fois sur les doigts de pied et de main.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Carpolestes apparait plus dérivé que son parent Purgatorius, qui vivait au début du Paléocène.
 </t>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (23 décembre 2021)[3] et GBIF       (23 décembre 2021)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (23 décembre 2021) et GBIF       (23 décembre 2021) :
 Carpolestes dubius (Jepsen, 1930)
 Carpolestes nigridens (Simpson, 1928)
 Carpolestes simpsoni Bloch &amp; Gingerich, 1998
